--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_4.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_0</t>
+          <t>model_40_4_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999888569583757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990444180136924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999520717568894</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.999966143962378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999637566311931</v>
       </c>
       <c r="G2" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.040154023324248e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008919938390167814</v>
       </c>
       <c r="I2" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>1.667889014418777e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>2.558870368328366e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>2.113379691373571e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.000253707093221392</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003225141893505227</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000008104030272</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003362442860875835</v>
       </c>
       <c r="P2" t="n">
-        <v>135.4931009932421</v>
+        <v>136.9471133268647</v>
       </c>
       <c r="Q2" t="n">
-        <v>204.9690230107295</v>
+        <v>206.4230353443521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_22</t>
+          <t>model_40_4_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999887716518677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990442895966609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999452922943013</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999754682427912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999677765928024</v>
       </c>
       <c r="G3" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.048117011398168e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008921137106787998</v>
       </c>
       <c r="I3" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>1.903812353989531e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>1.854132704652709e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>1.87897252932112e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002509508537569384</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003237463530911458</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000008166071369</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003375289055895755</v>
       </c>
       <c r="P3" t="n">
-        <v>135.4931009932421</v>
+        <v>136.931860466413</v>
       </c>
       <c r="Q3" t="n">
-        <v>204.9690230107295</v>
+        <v>206.4077824839005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_21</t>
+          <t>model_40_4_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999885903606084</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.999044101358305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999548716786814</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999571812360302</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999587834989055</v>
       </c>
       <c r="G4" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.065039754678202e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008922894229212643</v>
       </c>
       <c r="I4" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>1.570452544917265e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>3.236281444220282e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>2.403366994568774e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002553523709810137</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003263494683124521</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000008297919557</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003402428408150442</v>
       </c>
       <c r="P4" t="n">
-        <v>135.4931009932421</v>
+        <v>136.8998266763384</v>
       </c>
       <c r="Q4" t="n">
-        <v>204.9690230107295</v>
+        <v>206.3757486938258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_20</t>
+          <t>model_40_4_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999879572350348</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.999043303984773</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.999955472854507</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999474401746683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999526526796472</v>
       </c>
       <c r="G5" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.124139247874771e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008930337361127787</v>
       </c>
       <c r="I5" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>1.549531799854966e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>3.972519794177987e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>2.760859946760804e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002571643365213898</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003352818587211022</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00000875837452</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003495555015759877</v>
       </c>
       <c r="P5" t="n">
-        <v>135.4931009932421</v>
+        <v>136.7918156703248</v>
       </c>
       <c r="Q5" t="n">
-        <v>204.9690230107295</v>
+        <v>206.2677376878122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_19</t>
+          <t>model_40_4_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999880313320454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.999043302846128</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999338035370439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999834488100121</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999695191687791</v>
       </c>
       <c r="G6" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.117222617179978e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008930347989879738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>2.30361778759734e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>1.25095411617847e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>1.777361536716337e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002481142660889259</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.00334248802119017</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000008704485785</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003484784656156298</v>
       </c>
       <c r="P6" t="n">
-        <v>135.4931009932421</v>
+        <v>136.8041593311285</v>
       </c>
       <c r="Q6" t="n">
-        <v>204.9690230107295</v>
+        <v>206.2800813486159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_18</t>
+          <t>model_40_4_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999870737065321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990421823961634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999542800841056</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.999937442825072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999458147639619</v>
       </c>
       <c r="G7" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.206612755365214e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.00089408068984778</v>
       </c>
       <c r="I7" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>1.59103986525031e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>4.72812864390707e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>3.15958425457869e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002588736072799486</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003473633192156613</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000009400940704</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003621512948558711</v>
       </c>
       <c r="P7" t="n">
-        <v>135.4931009932421</v>
+        <v>136.6502168133458</v>
       </c>
       <c r="Q7" t="n">
-        <v>204.9690230107295</v>
+        <v>206.1261388308332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_17</t>
+          <t>model_40_4_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999864921351366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990411917765152</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999180769010618</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999890648137931</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999684685039308</v>
       </c>
       <c r="G8" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.2608998923232e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008950053898062024</v>
       </c>
       <c r="I8" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>2.85090017655782e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>8.264914007155525e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>1.838626640539554e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002464678245271834</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.0035509152233237</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000009823901719</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003702085035788441</v>
       </c>
       <c r="P8" t="n">
-        <v>135.4931009932421</v>
+        <v>136.5621995973399</v>
       </c>
       <c r="Q8" t="n">
-        <v>204.9690230107295</v>
+        <v>206.0381216148274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_16</t>
+          <t>model_40_4_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999859531813056</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990407822718661</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999516131582884</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999269903542074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999382448486259</v>
       </c>
       <c r="G9" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.311208866721156e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000895387644420996</v>
       </c>
       <c r="I9" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>1.6838481132507e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>5.518135976423439e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>3.600992044837069e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002608300451419072</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003621061814884076</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000010215868141</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003775217912975004</v>
       </c>
       <c r="P9" t="n">
-        <v>135.4931009932421</v>
+        <v>136.4839519085013</v>
       </c>
       <c r="Q9" t="n">
-        <v>204.9690230107295</v>
+        <v>205.9598739259887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_15</t>
+          <t>model_40_4_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999848059704201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990393192874465</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999481513174018</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999172626162708</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999309074216648</v>
       </c>
       <c r="G10" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.418295967205791e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008967532761591173</v>
       </c>
       <c r="I10" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>1.804319176026419e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>6.253367329678689e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>4.028843252852555e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002622202811550003</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003766027040802802</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000011050203331</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.003926354608680478</v>
       </c>
       <c r="P10" t="n">
-        <v>135.4931009932421</v>
+        <v>136.3269386741117</v>
       </c>
       <c r="Q10" t="n">
-        <v>204.9690230107295</v>
+        <v>205.8028606915991</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_14</t>
+          <t>model_40_4_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999840565698894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990377938584444</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9998966462952402</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999926167090559</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999643730991662</v>
       </c>
       <c r="G11" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.488249217256651e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008981771971739203</v>
       </c>
       <c r="I11" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.596679068134959e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>5.580358997855143e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>2.077432953045547e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002523414259051662</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.00385778332369335</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000011595221899</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004022017146495366</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4931009932421</v>
+        <v>136.2306501157357</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.9690230107295</v>
+        <v>205.7065721332231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_13</t>
+          <t>model_40_4_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.999983555862798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990377605717943</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999439471390513</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9999075420208257</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999233531112541</v>
       </c>
       <c r="G12" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.534988026389804e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008982082688007245</v>
       </c>
       <c r="I12" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>1.950623368088488e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>6.988058846889392e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>4.469341107488941e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002636612074077013</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.003917892324183762</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000011959372511</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004084685111579439</v>
       </c>
       <c r="P12" t="n">
-        <v>135.4931009932421</v>
+        <v>136.168805768718</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.9690230107295</v>
+        <v>205.6447277862054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_23</t>
+          <t>model_40_4_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999823438278012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990362297840377</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999395453181239</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998985839308228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999162339943176</v>
       </c>
       <c r="G13" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.648126173120339e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008996371919776298</v>
       </c>
       <c r="I13" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>2.103805464737697e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>7.665119503575729e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>4.884462484156713e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.000268177866457636</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004059712025649528</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000012840852508</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004232542371343856</v>
       </c>
       <c r="P13" t="n">
-        <v>135.4931009932421</v>
+        <v>136.0265729501084</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.9690230107295</v>
+        <v>205.5024949675958</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999810978583494</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990346826747557</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999348437116896</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998898069636225</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999091428051292</v>
       </c>
       <c r="G14" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.764431952268477e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009010813505821405</v>
       </c>
       <c r="I14" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>2.267420010419253e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>8.328490732761485e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>5.297955371590369e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002747726533684195</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004200514197414974</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001374701211</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004379338783062035</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4931009932421</v>
+        <v>135.8901933329222</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.9690230107295</v>
+        <v>205.3661153504096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_10</t>
+          <t>model_40_4_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999798530255857</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990331677518508</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999299461065617</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998813743706118</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9999022163145934</v>
       </c>
       <c r="G15" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.880631626584042e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000902495464616414</v>
       </c>
       <c r="I15" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>2.437855254016206e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>8.965833844915548e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>5.701844549465876e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002809183993748662</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004336624985612708</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000014652345029</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004521244089301521</v>
       </c>
       <c r="P15" t="n">
-        <v>135.4931009932421</v>
+        <v>135.7626355459338</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.9690230107295</v>
+        <v>205.2385575634213</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_9</t>
+          <t>model_40_4_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999788174352937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990318756074318</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.99992566295732</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998744806045476</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998964704702503</v>
       </c>
       <c r="G16" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>1.97729943461937e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009037016247130108</v>
       </c>
       <c r="I16" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>2.586907610284326e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>9.486871005399599e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>6.036889307841962e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002853315225945788</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004446683522153752</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000015405501605</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004635988045595695</v>
       </c>
       <c r="P16" t="n">
-        <v>135.4931009932421</v>
+        <v>135.6623869463226</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.9690230107295</v>
+        <v>205.13830896381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_8</t>
+          <t>model_40_4_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999777618700038</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990305668089576</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.999921273316965</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998676454087436</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998907288746123</v>
       </c>
       <c r="G17" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.075831821038984e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009049233306389977</v>
       </c>
       <c r="I17" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>2.739665826528839e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001000348137191036</v>
       </c>
       <c r="K17" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>6.371686320839062e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002897738497538214</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004556129740293821</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000016173185452</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004750093615826892</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4931009932421</v>
+        <v>135.5651270280167</v>
       </c>
       <c r="Q17" t="n">
-        <v>204.9690230107295</v>
+        <v>205.0410490455042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_7</t>
+          <t>model_40_4_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999768015513101</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990293742483128</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.999917175035703</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998615403580196</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998855512837358</v>
       </c>
       <c r="G18" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.165473355784593e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009060365336535468</v>
       </c>
       <c r="I18" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>2.882284830507258e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001046490670376921</v>
       </c>
       <c r="K18" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>6.673595767138233e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002935540342633957</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004653464683206044</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000016871599047</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004851572308769998</v>
       </c>
       <c r="P18" t="n">
-        <v>135.4931009932421</v>
+        <v>135.4805729746575</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.9690230107295</v>
+        <v>204.956494992145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_6</t>
+          <t>model_40_4_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.99997589127547</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990282389127895</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999133236264661</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998558195585637</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998806944541727</v>
       </c>
       <c r="G19" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.250443609805381e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009070963195291507</v>
       </c>
       <c r="I19" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.016312759329594e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001089728997241998</v>
       </c>
       <c r="K19" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>6.956801365874789e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0002969189708330429</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004743884072999024</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001753361784</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004945841039180404</v>
       </c>
       <c r="P19" t="n">
-        <v>135.4931009932421</v>
+        <v>135.4035962165477</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.9690230107295</v>
+        <v>204.8795182340351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_5</t>
+          <t>model_40_4_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999750428093467</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990271720908075</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999096920170299</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998505652497753</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998762039367928</v>
       </c>
       <c r="G20" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.329644198076484e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009080921510212733</v>
       </c>
       <c r="I20" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.142691718587588e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001129441544867098</v>
       </c>
       <c r="K20" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>7.218647009555896e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003000002083825784</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004826638787061327</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000018150684111</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005032118792746214</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4931009932421</v>
+        <v>135.3344198274827</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.9690230107295</v>
+        <v>204.8103418449702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_4</t>
+          <t>model_40_4_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999742494953097</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990261800155258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999062792164336</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998457024291634</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998720362370234</v>
       </c>
       <c r="G21" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.403696581195856e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009090182097496566</v>
       </c>
       <c r="I21" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.261456193425583e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001166195188956673</v>
       </c>
       <c r="K21" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>7.461668901353539e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003027655841577927</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004902750841309251</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000018727639775</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005111471094717143</v>
       </c>
       <c r="P21" t="n">
-        <v>135.4931009932421</v>
+        <v>135.2718353408155</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.9690230107295</v>
+        <v>204.7477573583029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_3</t>
+          <t>model_40_4_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.999973496656544</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990252401647579</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999030393203345</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998411334532652</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.99986810776111</v>
       </c>
       <c r="G22" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.473970775380567e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009098955191867873</v>
       </c>
       <c r="I22" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.374203641709616e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001200727927755577</v>
       </c>
       <c r="K22" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>7.690741459632692e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003053503682389043</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004973902668308425</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000019275158877</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005185652002296259</v>
       </c>
       <c r="P22" t="n">
-        <v>135.4931009932421</v>
+        <v>135.2142020075391</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.9690230107295</v>
+        <v>204.6901240250265</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_2</t>
+          <t>model_40_4_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999728400168594</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990244224207648</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9999001587045555</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998371893939488</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998646920967499</v>
       </c>
       <c r="G23" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.535265207631805e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009106588473095146</v>
       </c>
       <c r="I23" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.474448238647752e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001230537489725978</v>
       </c>
       <c r="K23" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>7.889911567953765e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003075010158586417</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005035141713628133</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000019752715011</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005249498120557528</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4931009932421</v>
+        <v>135.165254430008</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.9690230107295</v>
+        <v>204.6411764474954</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_1</t>
+          <t>model_40_4_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999722309069504</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990236693182867</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9998974783733777</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998335535278267</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998615381075507</v>
       </c>
       <c r="G24" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.592122943942237e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009113618354155484</v>
       </c>
       <c r="I24" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.567722989326357e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001258017699274054</v>
       </c>
       <c r="K24" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>8.073823189299137e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003094227999706829</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005091289565465941</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000020195704036</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005308036302690148</v>
       </c>
       <c r="P24" t="n">
-        <v>135.4931009932421</v>
+        <v>135.1208965110572</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.9690230107295</v>
+        <v>204.5968185285446</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_40_4_11</t>
+          <t>model_40_4_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999716386317543</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990229410206726</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9998948841229763</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.9998300464119871</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998584888969213</v>
       </c>
       <c r="G25" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.647409233711909e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009120416692697637</v>
       </c>
       <c r="I25" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.658002153849106e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001284524802379502</v>
       </c>
       <c r="K25" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>8.251625088822061e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003113782422443886</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005145298080492431</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000020626449633</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005364344072014354</v>
       </c>
       <c r="P25" t="n">
-        <v>135.4931009932421</v>
+        <v>135.0786879016743</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.9690230107295</v>
+        <v>204.5546099191617</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999711083399064</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990222860895418</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999851322256327</v>
+        <v>0.9998925699869066</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999993105397713</v>
+        <v>0.999826910682187</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999940274065425</v>
+        <v>0.9998557661369767</v>
       </c>
       <c r="G26" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.696909650001216e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009126530187321671</v>
       </c>
       <c r="I26" t="n">
-        <v>1.417490220064266e-05</v>
+        <v>3.738533420554858e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>8.36872235335409e-07</v>
+        <v>0.0001308224935745023</v>
       </c>
       <c r="K26" t="n">
-        <v>7.505887190609116e-06</v>
+        <v>8.410391389002545e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003130283614895052</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005193177880644198</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000021012116432</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005414262214383431</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4931009932421</v>
+        <v>135.0416378431174</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.9690230107295</v>
+        <v>204.5175598606048</v>
       </c>
     </row>
   </sheetData>
